--- a/data/trans_camb/P43-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P43-Edad-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.485609633890613</v>
+        <v>-2.482370143766597</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.13853418130069</v>
+        <v>-3.354063083125215</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.602768079574856</v>
+        <v>-2.591585115423785</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.033588091882609</v>
+        <v>3.72732815313631</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.102996728734024</v>
+        <v>2.971356128274697</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.926583503754895</v>
+        <v>6.351906677908612</v>
       </c>
     </row>
     <row r="7">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3443959228020705</v>
+        <v>-0.3573400795649546</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4333258431672746</v>
+        <v>-0.476350227800006</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3984638761442992</v>
+        <v>-0.4055658521274955</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.027053439291011</v>
+        <v>0.8289305104138395</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7551083607963692</v>
+        <v>0.6725591317143966</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.429091115351959</v>
+        <v>1.402990853990087</v>
       </c>
     </row>
     <row r="10">
@@ -696,7 +696,7 @@
         <v>0.3570526488099107</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.459700108396642</v>
+        <v>1.459700108396644</v>
       </c>
     </row>
     <row r="11">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.829064779784078</v>
+        <v>-3.916551323560431</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.757956771083824</v>
+        <v>-3.206374484346614</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.867517707337643</v>
+        <v>-3.4087669623787</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.145816175022379</v>
+        <v>3.747651054811088</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.413519567994485</v>
+        <v>4.305575424419739</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.470183089906341</v>
+        <v>6.225396102679604</v>
       </c>
     </row>
     <row r="13">
@@ -747,7 +747,7 @@
         <v>0.02735603773838385</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.1118367596070698</v>
+        <v>0.1118367596070701</v>
       </c>
     </row>
     <row r="14">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2586281007056132</v>
+        <v>-0.2599004161709581</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2581579819916041</v>
+        <v>-0.2217263615322089</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1966422895086322</v>
+        <v>-0.2314321364292037</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3755005111389768</v>
+        <v>0.3283934023314969</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3971881955463683</v>
+        <v>0.3842556803980841</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5917637906764232</v>
+        <v>0.5832534852852634</v>
       </c>
     </row>
     <row r="16">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.723265461990182</v>
+        <v>-5.276801162046623</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.454052123325667</v>
+        <v>-4.469355900548956</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.725708895217331</v>
+        <v>-6.316240765214945</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.617840048882474</v>
+        <v>4.770183000648314</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.825351307901523</v>
+        <v>5.833154788759655</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.769339433404897</v>
+        <v>4.205141310836616</v>
       </c>
     </row>
     <row r="19">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1575009774680854</v>
+        <v>-0.1465008811718328</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1228571669950434</v>
+        <v>-0.124859285031751</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1548867493897854</v>
+        <v>-0.1734881340815039</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1416357807149655</v>
+        <v>0.1508075536008095</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1897309685729846</v>
+        <v>0.1853411828524765</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1544443967081512</v>
+        <v>0.1327432812161411</v>
       </c>
     </row>
     <row r="22">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.19429513440199</v>
+        <v>-0.8969278035947011</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.773350978282162</v>
+        <v>-1.265127258916354</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.406323715965067</v>
+        <v>-5.732068526771145</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.70454908661835</v>
+        <v>10.94350740395129</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.939662246404565</v>
+        <v>10.52205604418884</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.886450161106811</v>
+        <v>5.239458212371643</v>
       </c>
     </row>
     <row r="25">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.01822137126090619</v>
+        <v>-0.01242089285831878</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.02675213161269225</v>
+        <v>-0.01873066967570546</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.08493644565775264</v>
+        <v>-0.09001440008684507</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.183222086731194</v>
+        <v>0.1913225331978257</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1681660558001161</v>
+        <v>0.1809209360592827</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.08281916368747221</v>
+        <v>0.08944187769645912</v>
       </c>
     </row>
     <row r="28">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>10.42438312778338</v>
+        <v>10.47907443073632</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>9.595439933748514</v>
+        <v>9.441698704783501</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.048576039636985</v>
+        <v>-0.6344287911230375</v>
       </c>
     </row>
     <row r="30">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>20.85404507058779</v>
+        <v>20.77071437848109</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>19.82214481228161</v>
+        <v>20.04323083156713</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8.610517522126226</v>
+        <v>8.981438260531096</v>
       </c>
     </row>
     <row r="31">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1289431908230632</v>
+        <v>0.1302085668314601</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1219672622772031</v>
+        <v>0.1204700092777634</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.01324479236661581</v>
+        <v>-0.008082807694901955</v>
       </c>
     </row>
     <row r="33">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2888684258625717</v>
+        <v>0.2868006434513462</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2771113346528454</v>
+        <v>0.2804678388828142</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1197673909063105</v>
+        <v>0.1242063645754664</v>
       </c>
     </row>
     <row r="34">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>15.17294581184683</v>
+        <v>15.16965696131984</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>17.07785814698358</v>
+        <v>16.30564950156817</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>16.00013510945891</v>
+        <v>15.66475733251068</v>
       </c>
     </row>
     <row r="36">
@@ -1148,13 +1148,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>28.42928343863541</v>
+        <v>27.88266416898483</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>28.476653217802</v>
+        <v>28.56267602103312</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>27.3150607603255</v>
+        <v>27.40558182833146</v>
       </c>
     </row>
     <row r="37">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.2254188776408125</v>
+        <v>0.2231385959593083</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.2544555662489829</v>
+        <v>0.2425162532946796</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.2371106523824041</v>
+        <v>0.2297213534896012</v>
       </c>
     </row>
     <row r="39">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.4718722086244542</v>
+        <v>0.4670042919551654</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.4793550505837787</v>
+        <v>0.4843072629736184</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.4649097138998387</v>
+        <v>0.4648928713039743</v>
       </c>
     </row>
     <row r="40">
@@ -1226,7 +1226,7 @@
         <v>30.92486881198127</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>41.16679968158689</v>
+        <v>41.16679968158691</v>
       </c>
     </row>
     <row r="41">
@@ -1237,13 +1237,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>17.33953229081825</v>
+        <v>17.00797941601131</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>22.66430203843263</v>
+        <v>22.8654374425006</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>34.83078867843131</v>
+        <v>34.36586607386967</v>
       </c>
     </row>
     <row r="42">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>32.54180647317686</v>
+        <v>31.43581577484551</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>38.20935814348727</v>
+        <v>38.72633969671225</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>48.19089248704707</v>
+        <v>46.96205892874906</v>
       </c>
     </row>
     <row r="43">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.4974673264430435</v>
+        <v>0.5114834853398205</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.685549765755192</v>
+        <v>0.6986056104736794</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>1.047792261503419</v>
+        <v>0.9982525300664723</v>
       </c>
     </row>
     <row r="45">
@@ -1305,13 +1305,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.30620156405647</v>
+        <v>1.272233310065589</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.550110001715627</v>
+        <v>1.618530042912686</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.020948118264062</v>
+        <v>1.907754417621856</v>
       </c>
     </row>
     <row r="46">
@@ -1343,13 +1343,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>6.794035992062673</v>
+        <v>6.817150208387714</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>9.602261304064607</v>
+        <v>9.589216384432344</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>12.12774062853585</v>
+        <v>11.98869196629258</v>
       </c>
     </row>
     <row r="48">
@@ -1360,13 +1360,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>11.65997302507998</v>
+        <v>11.58701693193305</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>14.20891781134076</v>
+        <v>14.59463006539581</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>16.63908890600208</v>
+        <v>16.58381429699191</v>
       </c>
     </row>
     <row r="49">
@@ -1394,13 +1394,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.1731737581209441</v>
+        <v>0.173447282599849</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.246094259188379</v>
+        <v>0.2447904242168622</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.312141021333935</v>
+        <v>0.30643912355013</v>
       </c>
     </row>
     <row r="51">
@@ -1411,13 +1411,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.3165392037572519</v>
+        <v>0.3132568775361239</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.3827285205123372</v>
+        <v>0.3973115690559105</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.4559335596789152</v>
+        <v>0.4511211911135145</v>
       </c>
     </row>
     <row r="52">
